--- a/processed/population.xlsx
+++ b/processed/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\myfinalproject\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93441908-3FA7-454B-8033-F09F8E9E897E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47CD16-9CFD-4C7F-9B6C-EF478BE13F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,9 +1399,6 @@
     <t>E12000007</t>
   </si>
   <si>
-    <t>LONDON</t>
-  </si>
-  <si>
     <t>E09000007</t>
   </si>
   <si>
@@ -2828,6 +2825,9 @@
   </si>
   <si>
     <t>South West</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -3253,10 +3253,10 @@
   <dimension ref="A1:AP433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomRight" activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,130 +3314,130 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B5" t="s">
         <v>807</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F5" t="s">
+        <v>871</v>
+      </c>
+      <c r="G5" t="s">
+        <v>868</v>
+      </c>
+      <c r="H5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I5" t="s">
+        <v>844</v>
+      </c>
+      <c r="J5" t="s">
+        <v>845</v>
+      </c>
+      <c r="K5" t="s">
+        <v>840</v>
+      </c>
+      <c r="L5" t="s">
+        <v>841</v>
+      </c>
+      <c r="M5" t="s">
+        <v>809</v>
+      </c>
+      <c r="N5" t="s">
+        <v>838</v>
+      </c>
+      <c r="O5" t="s">
         <v>808</v>
       </c>
-      <c r="C5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="P5" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>835</v>
+      </c>
+      <c r="R5" t="s">
+        <v>836</v>
+      </c>
+      <c r="S5" t="s">
+        <v>833</v>
+      </c>
+      <c r="T5" t="s">
+        <v>834</v>
+      </c>
+      <c r="U5" t="s">
+        <v>831</v>
+      </c>
+      <c r="V5" t="s">
+        <v>832</v>
+      </c>
+      <c r="W5" t="s">
+        <v>829</v>
+      </c>
+      <c r="X5" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>827</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>828</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>826</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>820</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>818</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>816</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>813</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>814</v>
+      </c>
+      <c r="AO5" t="s">
         <v>811</v>
       </c>
-      <c r="E5" t="s">
-        <v>873</v>
-      </c>
-      <c r="F5" t="s">
-        <v>872</v>
-      </c>
-      <c r="G5" t="s">
-        <v>869</v>
-      </c>
-      <c r="H5" t="s">
-        <v>870</v>
-      </c>
-      <c r="I5" t="s">
-        <v>845</v>
-      </c>
-      <c r="J5" t="s">
-        <v>846</v>
-      </c>
-      <c r="K5" t="s">
-        <v>841</v>
-      </c>
-      <c r="L5" t="s">
-        <v>842</v>
-      </c>
-      <c r="M5" t="s">
-        <v>810</v>
-      </c>
-      <c r="N5" t="s">
-        <v>839</v>
-      </c>
-      <c r="O5" t="s">
-        <v>809</v>
-      </c>
-      <c r="P5" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>836</v>
-      </c>
-      <c r="R5" t="s">
-        <v>837</v>
-      </c>
-      <c r="S5" t="s">
-        <v>834</v>
-      </c>
-      <c r="T5" t="s">
-        <v>835</v>
-      </c>
-      <c r="U5" t="s">
-        <v>832</v>
-      </c>
-      <c r="V5" t="s">
-        <v>833</v>
-      </c>
-      <c r="W5" t="s">
-        <v>830</v>
-      </c>
-      <c r="X5" t="s">
-        <v>831</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>828</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>829</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>826</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>827</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>824</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>825</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>822</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>820</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>821</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>818</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>819</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>816</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>817</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>814</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>815</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>812</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D6">
         <v>242743</v>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D7">
         <v>228950</v>
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D8">
         <v>151047</v>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D9">
         <v>130311</v>
@@ -3957,10 +3957,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D10">
         <v>8579</v>
@@ -4088,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D11">
         <v>2226</v>
@@ -4216,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D12">
         <v>197</v>
@@ -4344,7 +4344,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D13">
         <v>94</v>
@@ -4472,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D14">
         <v>54</v>
@@ -4600,7 +4600,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D15">
         <v>5018</v>
@@ -4728,7 +4728,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D16">
         <v>245</v>
@@ -4856,7 +4856,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D17">
         <v>205</v>
@@ -4984,7 +4984,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D18">
         <v>540</v>
@@ -5112,7 +5112,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D19">
         <v>142</v>
@@ -5240,7 +5240,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D20">
         <v>113</v>
@@ -5368,7 +5368,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D21">
         <v>82</v>
@@ -5496,7 +5496,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D22">
         <v>64</v>
@@ -5624,7 +5624,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D23">
         <v>137</v>
@@ -5749,10 +5749,10 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D24">
         <v>14108</v>
@@ -5880,7 +5880,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D25">
         <v>137</v>
@@ -6008,7 +6008,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -6136,7 +6136,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D27">
         <v>1166</v>
@@ -6264,7 +6264,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D28">
         <v>920</v>
@@ -6392,7 +6392,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D29">
         <v>79</v>
@@ -6520,7 +6520,7 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D30">
         <v>181</v>
@@ -6648,7 +6648,7 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D31">
         <v>6768</v>
@@ -6776,7 +6776,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D32">
         <v>1242</v>
@@ -6904,7 +6904,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D33">
         <v>78</v>
@@ -7032,7 +7032,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D34">
         <v>1038</v>
@@ -7160,7 +7160,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D35">
         <v>732</v>
@@ -7288,7 +7288,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D36">
         <v>2142</v>
@@ -7416,7 +7416,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D37">
         <v>1535</v>
@@ -7544,7 +7544,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D38">
         <v>1276</v>
@@ -7672,7 +7672,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D39">
         <v>140</v>
@@ -7800,7 +7800,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D40">
         <v>99</v>
@@ -7928,7 +7928,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D41">
         <v>116</v>
@@ -8056,7 +8056,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D42">
         <v>142</v>
@@ -8184,7 +8184,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D43">
         <v>158</v>
@@ -8312,7 +8312,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D44">
         <v>97</v>
@@ -8440,7 +8440,7 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D45">
         <v>126</v>
@@ -8568,7 +8568,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D46">
         <v>103</v>
@@ -8696,7 +8696,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D47">
         <v>106</v>
@@ -8824,7 +8824,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D48">
         <v>188</v>
@@ -8952,7 +8952,7 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D49">
         <v>2894</v>
@@ -9080,7 +9080,7 @@
         <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D50">
         <v>111</v>
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D51">
         <v>203</v>
@@ -9336,7 +9336,7 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D52">
         <v>166</v>
@@ -9464,7 +9464,7 @@
         <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D53">
         <v>73</v>
@@ -9592,7 +9592,7 @@
         <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D54">
         <v>567</v>
@@ -9720,7 +9720,7 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D55">
         <v>169</v>
@@ -9848,7 +9848,7 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D56">
         <v>142</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D57">
         <v>583</v>
@@ -10104,7 +10104,7 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D58">
         <v>138</v>
@@ -10232,7 +10232,7 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D59">
         <v>113</v>
@@ -10360,7 +10360,7 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D60">
         <v>347</v>
@@ -10488,7 +10488,7 @@
         <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D61">
         <v>282</v>
@@ -10616,7 +10616,7 @@
         <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D62">
         <v>652</v>
@@ -10744,7 +10744,7 @@
         <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D63">
         <v>87</v>
@@ -10872,7 +10872,7 @@
         <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D64">
         <v>112</v>
@@ -11000,7 +11000,7 @@
         <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D65">
         <v>157</v>
@@ -11128,7 +11128,7 @@
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D66">
         <v>136</v>
@@ -11256,7 +11256,7 @@
         <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D67">
         <v>161</v>
@@ -11381,10 +11381,10 @@
         <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C68" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D68">
         <v>15405</v>
@@ -11512,7 +11512,7 @@
         <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D69">
         <v>2404</v>
@@ -11640,7 +11640,7 @@
         <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -11768,7 +11768,7 @@
         <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D71">
         <v>193</v>
@@ -11896,7 +11896,7 @@
         <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D72">
         <v>846</v>
@@ -12024,7 +12024,7 @@
         <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D73">
         <v>272</v>
@@ -12152,7 +12152,7 @@
         <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D74">
         <v>8037</v>
@@ -12280,7 +12280,7 @@
         <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D75">
         <v>1177</v>
@@ -12408,7 +12408,7 @@
         <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D76">
         <v>1311</v>
@@ -12536,7 +12536,7 @@
         <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D77">
         <v>1308</v>
@@ -12664,7 +12664,7 @@
         <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D78">
         <v>1319</v>
@@ -12792,7 +12792,7 @@
         <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D79">
         <v>1507</v>
@@ -12920,7 +12920,7 @@
         <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D80">
         <v>816</v>
@@ -13048,7 +13048,7 @@
         <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D81">
         <v>599</v>
@@ -13176,7 +13176,7 @@
         <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D82">
         <v>1552</v>
@@ -13304,7 +13304,7 @@
         <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D83">
         <v>329</v>
@@ -13432,7 +13432,7 @@
         <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D84">
         <v>568</v>
@@ -13560,7 +13560,7 @@
         <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D85">
         <v>287</v>
@@ -13688,7 +13688,7 @@
         <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D86">
         <v>368</v>
@@ -13816,7 +13816,7 @@
         <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D87">
         <v>2029</v>
@@ -13944,7 +13944,7 @@
         <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D88">
         <v>366</v>
@@ -14072,7 +14072,7 @@
         <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D89">
         <v>364</v>
@@ -14200,7 +14200,7 @@
         <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D90">
         <v>409</v>
@@ -14328,7 +14328,7 @@
         <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D91">
         <v>552</v>
@@ -14456,7 +14456,7 @@
         <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D92">
         <v>339</v>
@@ -14581,10 +14581,10 @@
         <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C93" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D93">
         <v>15625</v>
@@ -14712,7 +14712,7 @@
         <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D94">
         <v>78</v>
@@ -14840,7 +14840,7 @@
         <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D95">
         <v>73</v>
@@ -14968,7 +14968,7 @@
         <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D96">
         <v>75</v>
@@ -15096,7 +15096,7 @@
         <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D97">
         <v>382</v>
@@ -15224,7 +15224,7 @@
         <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D98">
         <v>2547</v>
@@ -15352,7 +15352,7 @@
         <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D99">
         <v>265</v>
@@ -15480,7 +15480,7 @@
         <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D100">
         <v>160</v>
@@ -15608,7 +15608,7 @@
         <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D101">
         <v>66</v>
@@ -15736,7 +15736,7 @@
         <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D102">
         <v>792</v>
@@ -15864,7 +15864,7 @@
         <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D103">
         <v>110</v>
@@ -15992,7 +15992,7 @@
         <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D104">
         <v>539</v>
@@ -16120,7 +16120,7 @@
         <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D105">
         <v>276</v>
@@ -16248,7 +16248,7 @@
         <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D106">
         <v>338</v>
@@ -16376,7 +16376,7 @@
         <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D107">
         <v>2083</v>
@@ -16504,7 +16504,7 @@
         <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D108">
         <v>130</v>
@@ -16632,7 +16632,7 @@
         <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D109">
         <v>279</v>
@@ -16760,7 +16760,7 @@
         <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D110">
         <v>592</v>
@@ -16888,7 +16888,7 @@
         <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D111">
         <v>297</v>
@@ -17016,7 +17016,7 @@
         <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D112">
         <v>481</v>
@@ -17144,7 +17144,7 @@
         <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D113">
         <v>279</v>
@@ -17272,7 +17272,7 @@
         <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D114">
         <v>24</v>
@@ -17400,7 +17400,7 @@
         <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D115">
         <v>5939</v>
@@ -17528,7 +17528,7 @@
         <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D116">
         <v>365</v>
@@ -17656,7 +17656,7 @@
         <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D117">
         <v>1767</v>
@@ -17784,7 +17784,7 @@
         <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D118">
         <v>36</v>
@@ -17912,7 +17912,7 @@
         <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D119">
         <v>922</v>
@@ -18040,7 +18040,7 @@
         <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D120">
         <v>751</v>
@@ -18168,7 +18168,7 @@
         <v>231</v>
       </c>
       <c r="C121" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D121">
         <v>943</v>
@@ -18296,7 +18296,7 @@
         <v>233</v>
       </c>
       <c r="C122" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D122">
         <v>1156</v>
@@ -18424,7 +18424,7 @@
         <v>235</v>
       </c>
       <c r="C123" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D123">
         <v>2364</v>
@@ -18552,7 +18552,7 @@
         <v>237</v>
       </c>
       <c r="C124" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D124">
         <v>80</v>
@@ -18680,7 +18680,7 @@
         <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D125">
         <v>663</v>
@@ -18808,7 +18808,7 @@
         <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D126">
         <v>510</v>
@@ -18936,7 +18936,7 @@
         <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D127">
         <v>233</v>
@@ -19064,7 +19064,7 @@
         <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D128">
         <v>81</v>
@@ -19192,7 +19192,7 @@
         <v>247</v>
       </c>
       <c r="C129" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D129">
         <v>634</v>
@@ -19320,7 +19320,7 @@
         <v>249</v>
       </c>
       <c r="C130" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D130">
         <v>163</v>
@@ -19448,7 +19448,7 @@
         <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D131">
         <v>2085</v>
@@ -19576,7 +19576,7 @@
         <v>253</v>
       </c>
       <c r="C132" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D132">
         <v>110</v>
@@ -19704,7 +19704,7 @@
         <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D133">
         <v>638</v>
@@ -19832,7 +19832,7 @@
         <v>257</v>
       </c>
       <c r="C134" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D134">
         <v>80</v>
@@ -19960,7 +19960,7 @@
         <v>259</v>
       </c>
       <c r="C135" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D135">
         <v>120</v>
@@ -20088,7 +20088,7 @@
         <v>261</v>
       </c>
       <c r="C136" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D136">
         <v>77</v>
@@ -20216,7 +20216,7 @@
         <v>263</v>
       </c>
       <c r="C137" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D137">
         <v>651</v>
@@ -20344,7 +20344,7 @@
         <v>265</v>
       </c>
       <c r="C138" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D138">
         <v>409</v>
@@ -20469,10 +20469,10 @@
         <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C139" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D139">
         <v>12998</v>
@@ -20600,7 +20600,7 @@
         <v>268</v>
       </c>
       <c r="C140" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D140">
         <v>2180</v>
@@ -20728,7 +20728,7 @@
         <v>270</v>
       </c>
       <c r="C141" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D141">
         <v>3197</v>
@@ -20856,7 +20856,7 @@
         <v>272</v>
       </c>
       <c r="C142" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D142">
         <v>93</v>
@@ -20984,7 +20984,7 @@
         <v>274</v>
       </c>
       <c r="C143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D143">
         <v>290</v>
@@ -21112,7 +21112,7 @@
         <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D144">
         <v>2620</v>
@@ -21240,7 +21240,7 @@
         <v>278</v>
       </c>
       <c r="C145" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D145">
         <v>79</v>
@@ -21368,7 +21368,7 @@
         <v>280</v>
       </c>
       <c r="C146" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D146">
         <v>387</v>
@@ -21496,7 +21496,7 @@
         <v>282</v>
       </c>
       <c r="C147" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D147">
         <v>331</v>
@@ -21624,7 +21624,7 @@
         <v>284</v>
       </c>
       <c r="C148" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D148">
         <v>211</v>
@@ -21752,7 +21752,7 @@
         <v>286</v>
       </c>
       <c r="C149" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D149">
         <v>407</v>
@@ -21880,7 +21880,7 @@
         <v>288</v>
       </c>
       <c r="C150" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D150">
         <v>598</v>
@@ -22008,7 +22008,7 @@
         <v>290</v>
       </c>
       <c r="C151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D151">
         <v>576</v>
@@ -22136,7 +22136,7 @@
         <v>292</v>
       </c>
       <c r="C152" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D152">
         <v>31</v>
@@ -22264,7 +22264,7 @@
         <v>294</v>
       </c>
       <c r="C153" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D153">
         <v>1975</v>
@@ -22392,7 +22392,7 @@
         <v>296</v>
       </c>
       <c r="C154" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D154">
         <v>284</v>
@@ -22520,7 +22520,7 @@
         <v>298</v>
       </c>
       <c r="C155" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D155">
         <v>79</v>
@@ -22648,7 +22648,7 @@
         <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D156">
         <v>351</v>
@@ -22776,7 +22776,7 @@
         <v>302</v>
       </c>
       <c r="C157" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D157">
         <v>978</v>
@@ -22904,7 +22904,7 @@
         <v>304</v>
       </c>
       <c r="C158" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D158">
         <v>283</v>
@@ -23032,7 +23032,7 @@
         <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D159">
         <v>902</v>
@@ -23160,7 +23160,7 @@
         <v>308</v>
       </c>
       <c r="C160" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D160">
         <v>268</v>
@@ -23288,7 +23288,7 @@
         <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D161">
         <v>99</v>
@@ -23416,7 +23416,7 @@
         <v>312</v>
       </c>
       <c r="C162" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D162">
         <v>98</v>
@@ -23544,7 +23544,7 @@
         <v>314</v>
       </c>
       <c r="C163" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D163">
         <v>86</v>
@@ -23672,7 +23672,7 @@
         <v>316</v>
       </c>
       <c r="C164" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D164">
         <v>178</v>
@@ -23800,7 +23800,7 @@
         <v>318</v>
       </c>
       <c r="C165" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D165">
         <v>104</v>
@@ -23928,7 +23928,7 @@
         <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -24056,7 +24056,7 @@
         <v>322</v>
       </c>
       <c r="C167" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D167">
         <v>1741</v>
@@ -24184,7 +24184,7 @@
         <v>324</v>
       </c>
       <c r="C168" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D168">
         <v>217</v>
@@ -24312,7 +24312,7 @@
         <v>326</v>
       </c>
       <c r="C169" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D169">
         <v>577</v>
@@ -24440,7 +24440,7 @@
         <v>328</v>
       </c>
       <c r="C170" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D170">
         <v>54</v>
@@ -24568,7 +24568,7 @@
         <v>330</v>
       </c>
       <c r="C171" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D171">
         <v>33</v>
@@ -24696,7 +24696,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D172">
         <v>664</v>
@@ -24824,7 +24824,7 @@
         <v>334</v>
       </c>
       <c r="C173" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D173">
         <v>195</v>
@@ -24949,10 +24949,10 @@
         <v>335</v>
       </c>
       <c r="B174" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C174" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D174">
         <v>19116</v>
@@ -25080,7 +25080,7 @@
         <v>337</v>
       </c>
       <c r="C175" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D175">
         <v>476</v>
@@ -25208,7 +25208,7 @@
         <v>339</v>
       </c>
       <c r="C176" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D176">
         <v>716</v>
@@ -25336,7 +25336,7 @@
         <v>341</v>
       </c>
       <c r="C177" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D177">
         <v>43</v>
@@ -25464,7 +25464,7 @@
         <v>343</v>
       </c>
       <c r="C178" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D178">
         <v>343</v>
@@ -25592,7 +25592,7 @@
         <v>345</v>
       </c>
       <c r="C179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D179">
         <v>42</v>
@@ -25720,7 +25720,7 @@
         <v>347</v>
       </c>
       <c r="C180" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D180">
         <v>164</v>
@@ -25848,7 +25848,7 @@
         <v>349</v>
       </c>
       <c r="C181" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D181">
         <v>3046</v>
@@ -25976,7 +25976,7 @@
         <v>351</v>
       </c>
       <c r="C182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D182">
         <v>41</v>
@@ -26104,7 +26104,7 @@
         <v>353</v>
       </c>
       <c r="C183" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D183">
         <v>651</v>
@@ -26232,7 +26232,7 @@
         <v>355</v>
       </c>
       <c r="C184" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D184">
         <v>546</v>
@@ -26360,7 +26360,7 @@
         <v>357</v>
       </c>
       <c r="C185" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D185">
         <v>906</v>
@@ -26488,7 +26488,7 @@
         <v>359</v>
       </c>
       <c r="C186" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D186">
         <v>902</v>
@@ -26616,7 +26616,7 @@
         <v>361</v>
       </c>
       <c r="C187" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D187">
         <v>3459</v>
@@ -26744,7 +26744,7 @@
         <v>363</v>
       </c>
       <c r="C188" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D188">
         <v>110</v>
@@ -26872,7 +26872,7 @@
         <v>365</v>
       </c>
       <c r="C189" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D189">
         <v>612</v>
@@ -27000,7 +27000,7 @@
         <v>367</v>
       </c>
       <c r="C190" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D190">
         <v>153</v>
@@ -27128,7 +27128,7 @@
         <v>369</v>
       </c>
       <c r="C191" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D191">
         <v>45</v>
@@ -27256,7 +27256,7 @@
         <v>371</v>
       </c>
       <c r="C192" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D192">
         <v>339</v>
@@ -27384,7 +27384,7 @@
         <v>373</v>
       </c>
       <c r="C193" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D193">
         <v>328</v>
@@ -27512,7 +27512,7 @@
         <v>375</v>
       </c>
       <c r="C194" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D194">
         <v>339</v>
@@ -27640,7 +27640,7 @@
         <v>377</v>
       </c>
       <c r="C195" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D195">
         <v>31</v>
@@ -27768,7 +27768,7 @@
         <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D196">
         <v>358</v>
@@ -27896,7 +27896,7 @@
         <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D197">
         <v>167</v>
@@ -28024,7 +28024,7 @@
         <v>383</v>
       </c>
       <c r="C198" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D198">
         <v>336</v>
@@ -28152,7 +28152,7 @@
         <v>385</v>
       </c>
       <c r="C199" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D199">
         <v>641</v>
@@ -28280,7 +28280,7 @@
         <v>387</v>
       </c>
       <c r="C200" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D200">
         <v>1643</v>
@@ -28408,7 +28408,7 @@
         <v>389</v>
       </c>
       <c r="C201" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D201">
         <v>51</v>
@@ -28536,7 +28536,7 @@
         <v>391</v>
       </c>
       <c r="C202" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D202">
         <v>212</v>
@@ -28664,7 +28664,7 @@
         <v>393</v>
       </c>
       <c r="C203" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D203">
         <v>476</v>
@@ -28792,7 +28792,7 @@
         <v>395</v>
       </c>
       <c r="C204" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D204">
         <v>101</v>
@@ -28920,7 +28920,7 @@
         <v>397</v>
       </c>
       <c r="C205" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D205">
         <v>375</v>
@@ -29048,7 +29048,7 @@
         <v>399</v>
       </c>
       <c r="C206" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D206">
         <v>161</v>
@@ -29176,7 +29176,7 @@
         <v>401</v>
       </c>
       <c r="C207" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D207">
         <v>26</v>
@@ -29304,7 +29304,7 @@
         <v>403</v>
       </c>
       <c r="C208" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D208">
         <v>89</v>
@@ -29432,7 +29432,7 @@
         <v>405</v>
       </c>
       <c r="C209" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D209">
         <v>21</v>
@@ -29560,7 +29560,7 @@
         <v>407</v>
       </c>
       <c r="C210" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D210">
         <v>130</v>
@@ -29688,7 +29688,7 @@
         <v>409</v>
       </c>
       <c r="C211" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D211">
         <v>5384</v>
@@ -29816,7 +29816,7 @@
         <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D212">
         <v>1305</v>
@@ -29944,7 +29944,7 @@
         <v>413</v>
       </c>
       <c r="C213" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D213">
         <v>552</v>
@@ -30072,7 +30072,7 @@
         <v>415</v>
       </c>
       <c r="C214" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D214">
         <v>174</v>
@@ -30200,7 +30200,7 @@
         <v>417</v>
       </c>
       <c r="C215" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D215">
         <v>1439</v>
@@ -30328,7 +30328,7 @@
         <v>419</v>
       </c>
       <c r="C216" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D216">
         <v>966</v>
@@ -30456,7 +30456,7 @@
         <v>421</v>
       </c>
       <c r="C217" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D217">
         <v>39</v>
@@ -30584,7 +30584,7 @@
         <v>423</v>
       </c>
       <c r="C218" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D218">
         <v>908</v>
@@ -30712,7 +30712,7 @@
         <v>425</v>
       </c>
       <c r="C219" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D219">
         <v>3800</v>
@@ -30840,7 +30840,7 @@
         <v>427</v>
       </c>
       <c r="C220" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D220">
         <v>594</v>
@@ -30962,13 +30962,13 @@
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>863</v>
+      </c>
+      <c r="B221" t="s">
         <v>864</v>
       </c>
-      <c r="B221" t="s">
-        <v>865</v>
-      </c>
       <c r="C221" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D221">
         <v>1261</v>
@@ -31096,7 +31096,7 @@
         <v>429</v>
       </c>
       <c r="C222" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D222">
         <v>40</v>
@@ -31224,7 +31224,7 @@
         <v>431</v>
       </c>
       <c r="C223" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D223">
         <v>871</v>
@@ -31346,13 +31346,13 @@
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B224" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C224" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D224">
         <v>1035</v>
@@ -31477,10 +31477,10 @@
         <v>432</v>
       </c>
       <c r="B225" t="s">
-        <v>433</v>
+        <v>905</v>
       </c>
       <c r="C225" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D225">
         <v>1572</v>
@@ -31602,13 +31602,13 @@
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>433</v>
+      </c>
+      <c r="B226" t="s">
         <v>434</v>
       </c>
-      <c r="B226" t="s">
-        <v>435</v>
-      </c>
       <c r="C226" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D226">
         <v>22</v>
@@ -31730,13 +31730,13 @@
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>435</v>
+      </c>
+      <c r="B227" t="s">
         <v>436</v>
       </c>
-      <c r="B227" t="s">
-        <v>437</v>
-      </c>
       <c r="C227" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -31858,13 +31858,13 @@
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>437</v>
+      </c>
+      <c r="B228" t="s">
         <v>438</v>
       </c>
-      <c r="B228" t="s">
-        <v>439</v>
-      </c>
       <c r="C228" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D228">
         <v>19</v>
@@ -31986,13 +31986,13 @@
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>439</v>
+      </c>
+      <c r="B229" t="s">
         <v>440</v>
       </c>
-      <c r="B229" t="s">
-        <v>441</v>
-      </c>
       <c r="C229" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D229">
         <v>16</v>
@@ -32114,13 +32114,13 @@
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>441</v>
+      </c>
+      <c r="B230" t="s">
         <v>442</v>
       </c>
-      <c r="B230" t="s">
-        <v>443</v>
-      </c>
       <c r="C230" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D230">
         <v>30</v>
@@ -32242,13 +32242,13 @@
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>443</v>
+      </c>
+      <c r="B231" t="s">
         <v>444</v>
       </c>
-      <c r="B231" t="s">
-        <v>445</v>
-      </c>
       <c r="C231" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D231">
         <v>15</v>
@@ -32370,13 +32370,13 @@
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>445</v>
+      </c>
+      <c r="B232" t="s">
         <v>446</v>
       </c>
-      <c r="B232" t="s">
-        <v>447</v>
-      </c>
       <c r="C232" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D232">
         <v>12</v>
@@ -32498,13 +32498,13 @@
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" t="s">
         <v>448</v>
       </c>
-      <c r="B233" t="s">
-        <v>449</v>
-      </c>
       <c r="C233" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D233">
         <v>27</v>
@@ -32626,13 +32626,13 @@
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>449</v>
+      </c>
+      <c r="B234" t="s">
         <v>450</v>
       </c>
-      <c r="B234" t="s">
-        <v>451</v>
-      </c>
       <c r="C234" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D234">
         <v>35</v>
@@ -32754,13 +32754,13 @@
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>451</v>
+      </c>
+      <c r="B235" t="s">
         <v>452</v>
       </c>
-      <c r="B235" t="s">
-        <v>453</v>
-      </c>
       <c r="C235" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D235">
         <v>36</v>
@@ -32882,13 +32882,13 @@
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>453</v>
+      </c>
+      <c r="B236" t="s">
         <v>454</v>
       </c>
-      <c r="B236" t="s">
-        <v>455</v>
-      </c>
       <c r="C236" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D236">
         <v>29</v>
@@ -33010,13 +33010,13 @@
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>455</v>
+      </c>
+      <c r="B237" t="s">
         <v>456</v>
       </c>
-      <c r="B237" t="s">
-        <v>457</v>
-      </c>
       <c r="C237" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D237">
         <v>20</v>
@@ -33138,13 +33138,13 @@
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>457</v>
+      </c>
+      <c r="B238" t="s">
         <v>458</v>
       </c>
-      <c r="B238" t="s">
-        <v>459</v>
-      </c>
       <c r="C238" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D238">
         <v>34</v>
@@ -33266,13 +33266,13 @@
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>459</v>
+      </c>
+      <c r="B239" t="s">
         <v>460</v>
       </c>
-      <c r="B239" t="s">
-        <v>461</v>
-      </c>
       <c r="C239" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D239">
         <v>21</v>
@@ -33394,13 +33394,13 @@
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>461</v>
+      </c>
+      <c r="B240" t="s">
         <v>462</v>
       </c>
-      <c r="B240" t="s">
-        <v>463</v>
-      </c>
       <c r="C240" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D240">
         <v>36</v>
@@ -33522,13 +33522,13 @@
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>463</v>
+      </c>
+      <c r="B241" t="s">
         <v>464</v>
       </c>
-      <c r="B241" t="s">
-        <v>465</v>
-      </c>
       <c r="C241" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D241">
         <v>87</v>
@@ -33650,13 +33650,13 @@
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>465</v>
+      </c>
+      <c r="B242" t="s">
         <v>466</v>
       </c>
-      <c r="B242" t="s">
-        <v>467</v>
-      </c>
       <c r="C242" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D242">
         <v>61</v>
@@ -33778,13 +33778,13 @@
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>467</v>
+      </c>
+      <c r="B243" t="s">
         <v>468</v>
       </c>
-      <c r="B243" t="s">
-        <v>469</v>
-      </c>
       <c r="C243" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D243">
         <v>43</v>
@@ -33906,13 +33906,13 @@
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>469</v>
+      </c>
+      <c r="B244" t="s">
         <v>470</v>
       </c>
-      <c r="B244" t="s">
-        <v>471</v>
-      </c>
       <c r="C244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D244">
         <v>150</v>
@@ -34034,13 +34034,13 @@
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>471</v>
+      </c>
+      <c r="B245" t="s">
         <v>472</v>
       </c>
-      <c r="B245" t="s">
-        <v>473</v>
-      </c>
       <c r="C245" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D245">
         <v>86</v>
@@ -34162,13 +34162,13 @@
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>473</v>
+      </c>
+      <c r="B246" t="s">
         <v>474</v>
       </c>
-      <c r="B246" t="s">
-        <v>475</v>
-      </c>
       <c r="C246" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D246">
         <v>56</v>
@@ -34290,13 +34290,13 @@
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>475</v>
+      </c>
+      <c r="B247" t="s">
         <v>476</v>
       </c>
-      <c r="B247" t="s">
-        <v>477</v>
-      </c>
       <c r="C247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D247">
         <v>81</v>
@@ -34418,13 +34418,13 @@
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>477</v>
+      </c>
+      <c r="B248" t="s">
         <v>478</v>
       </c>
-      <c r="B248" t="s">
-        <v>479</v>
-      </c>
       <c r="C248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D248">
         <v>47</v>
@@ -34546,13 +34546,13 @@
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>479</v>
+      </c>
+      <c r="B249" t="s">
         <v>480</v>
       </c>
-      <c r="B249" t="s">
-        <v>481</v>
-      </c>
       <c r="C249" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D249">
         <v>50</v>
@@ -34674,13 +34674,13 @@
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>481</v>
+      </c>
+      <c r="B250" t="s">
         <v>482</v>
       </c>
-      <c r="B250" t="s">
-        <v>483</v>
-      </c>
       <c r="C250" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D250">
         <v>112</v>
@@ -34802,13 +34802,13 @@
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>483</v>
+      </c>
+      <c r="B251" t="s">
         <v>484</v>
       </c>
-      <c r="B251" t="s">
-        <v>485</v>
-      </c>
       <c r="C251" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D251">
         <v>116</v>
@@ -34930,13 +34930,13 @@
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>485</v>
+      </c>
+      <c r="B252" t="s">
         <v>486</v>
       </c>
-      <c r="B252" t="s">
-        <v>487</v>
-      </c>
       <c r="C252" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D252">
         <v>56</v>
@@ -35058,13 +35058,13 @@
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>487</v>
+      </c>
+      <c r="B253" t="s">
         <v>488</v>
       </c>
-      <c r="B253" t="s">
-        <v>489</v>
-      </c>
       <c r="C253" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D253">
         <v>37</v>
@@ -35186,13 +35186,13 @@
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>489</v>
+      </c>
+      <c r="B254" t="s">
         <v>490</v>
       </c>
-      <c r="B254" t="s">
-        <v>491</v>
-      </c>
       <c r="C254" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D254">
         <v>38</v>
@@ -35314,13 +35314,13 @@
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>491</v>
+      </c>
+      <c r="B255" t="s">
         <v>492</v>
       </c>
-      <c r="B255" t="s">
-        <v>493</v>
-      </c>
       <c r="C255" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D255">
         <v>56</v>
@@ -35442,13 +35442,13 @@
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>493</v>
+      </c>
+      <c r="B256" t="s">
         <v>494</v>
       </c>
-      <c r="B256" t="s">
-        <v>495</v>
-      </c>
       <c r="C256" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D256">
         <v>57</v>
@@ -35570,13 +35570,13 @@
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>495</v>
+      </c>
+      <c r="B257" t="s">
         <v>496</v>
       </c>
-      <c r="B257" t="s">
-        <v>497</v>
-      </c>
       <c r="C257" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D257">
         <v>44</v>
@@ -35698,13 +35698,13 @@
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>497</v>
+      </c>
+      <c r="B258" t="s">
         <v>498</v>
       </c>
-      <c r="B258" t="s">
-        <v>499</v>
-      </c>
       <c r="C258" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D258">
         <v>39</v>
@@ -35826,13 +35826,13 @@
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B259" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C259" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D259">
         <v>19072</v>
@@ -35954,13 +35954,13 @@
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>500</v>
+      </c>
+      <c r="B260" t="s">
         <v>501</v>
       </c>
-      <c r="B260" t="s">
-        <v>502</v>
-      </c>
       <c r="C260" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D260">
         <v>109</v>
@@ -36082,13 +36082,13 @@
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>502</v>
+      </c>
+      <c r="B261" t="s">
         <v>503</v>
       </c>
-      <c r="B261" t="s">
-        <v>504</v>
-      </c>
       <c r="C261" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D261">
         <v>83</v>
@@ -36210,13 +36210,13 @@
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>504</v>
+      </c>
+      <c r="B262" t="s">
         <v>505</v>
       </c>
-      <c r="B262" t="s">
-        <v>506</v>
-      </c>
       <c r="C262" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D262">
         <v>380</v>
@@ -36338,13 +36338,13 @@
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>506</v>
+      </c>
+      <c r="B263" t="s">
         <v>507</v>
       </c>
-      <c r="B263" t="s">
-        <v>508</v>
-      </c>
       <c r="C263" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D263">
         <v>194</v>
@@ -36466,13 +36466,13 @@
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>508</v>
+      </c>
+      <c r="B264" t="s">
         <v>509</v>
       </c>
-      <c r="B264" t="s">
-        <v>510</v>
-      </c>
       <c r="C264" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D264">
         <v>309</v>
@@ -36594,13 +36594,13 @@
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>510</v>
+      </c>
+      <c r="B265" t="s">
         <v>511</v>
       </c>
-      <c r="B265" t="s">
-        <v>512</v>
-      </c>
       <c r="C265" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D265">
         <v>40</v>
@@ -36722,13 +36722,13 @@
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>512</v>
+      </c>
+      <c r="B266" t="s">
         <v>513</v>
       </c>
-      <c r="B266" t="s">
-        <v>514</v>
-      </c>
       <c r="C266" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D266">
         <v>40</v>
@@ -36850,13 +36850,13 @@
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>514</v>
+      </c>
+      <c r="B267" t="s">
         <v>515</v>
       </c>
-      <c r="B267" t="s">
-        <v>516</v>
-      </c>
       <c r="C267" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D267">
         <v>33</v>
@@ -36978,13 +36978,13 @@
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>516</v>
+      </c>
+      <c r="B268" t="s">
         <v>517</v>
       </c>
-      <c r="B268" t="s">
-        <v>518</v>
-      </c>
       <c r="C268" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D268">
         <v>50</v>
@@ -37106,13 +37106,13 @@
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269" t="s">
         <v>519</v>
       </c>
-      <c r="B269" t="s">
-        <v>520</v>
-      </c>
       <c r="C269" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D269">
         <v>704</v>
@@ -37234,13 +37234,13 @@
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>520</v>
+      </c>
+      <c r="B270" t="s">
         <v>521</v>
       </c>
-      <c r="B270" t="s">
-        <v>522</v>
-      </c>
       <c r="C270" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D270">
         <v>197</v>
@@ -37362,13 +37362,13 @@
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>522</v>
+      </c>
+      <c r="B271" t="s">
         <v>523</v>
       </c>
-      <c r="B271" t="s">
-        <v>524</v>
-      </c>
       <c r="C271" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D271">
         <v>179</v>
@@ -37490,13 +37490,13 @@
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B272" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C272" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D272">
         <v>1565</v>
@@ -37618,13 +37618,13 @@
     </row>
     <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>525</v>
+      </c>
+      <c r="B273" t="s">
         <v>526</v>
       </c>
-      <c r="B273" t="s">
-        <v>527</v>
-      </c>
       <c r="C273" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D273">
         <v>1709</v>
@@ -37746,13 +37746,13 @@
     </row>
     <row r="274" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>527</v>
+      </c>
+      <c r="B274" t="s">
         <v>528</v>
       </c>
-      <c r="B274" t="s">
-        <v>529</v>
-      </c>
       <c r="C274" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D274">
         <v>44</v>
@@ -37874,13 +37874,13 @@
     </row>
     <row r="275" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>529</v>
+      </c>
+      <c r="B275" t="s">
         <v>530</v>
       </c>
-      <c r="B275" t="s">
-        <v>531</v>
-      </c>
       <c r="C275" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D275">
         <v>30</v>
@@ -38002,13 +38002,13 @@
     </row>
     <row r="276" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>531</v>
+      </c>
+      <c r="B276" t="s">
         <v>532</v>
       </c>
-      <c r="B276" t="s">
-        <v>533</v>
-      </c>
       <c r="C276" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D276">
         <v>292</v>
@@ -38130,13 +38130,13 @@
     </row>
     <row r="277" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>533</v>
+      </c>
+      <c r="B277" t="s">
         <v>534</v>
       </c>
-      <c r="B277" t="s">
-        <v>535</v>
-      </c>
       <c r="C277" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D277">
         <v>509</v>
@@ -38258,13 +38258,13 @@
     </row>
     <row r="278" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>535</v>
+      </c>
+      <c r="B278" t="s">
         <v>536</v>
       </c>
-      <c r="B278" t="s">
-        <v>537</v>
-      </c>
       <c r="C278" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D278">
         <v>833</v>
@@ -38386,13 +38386,13 @@
     </row>
     <row r="279" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>537</v>
+      </c>
+      <c r="B279" t="s">
         <v>538</v>
       </c>
-      <c r="B279" t="s">
-        <v>539</v>
-      </c>
       <c r="C279" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D279">
         <v>3678</v>
@@ -38514,13 +38514,13 @@
     </row>
     <row r="280" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>539</v>
+      </c>
+      <c r="B280" t="s">
         <v>540</v>
       </c>
-      <c r="B280" t="s">
-        <v>541</v>
-      </c>
       <c r="C280" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D280">
         <v>634</v>
@@ -38642,13 +38642,13 @@
     </row>
     <row r="281" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>541</v>
+      </c>
+      <c r="B281" t="s">
         <v>542</v>
       </c>
-      <c r="B281" t="s">
-        <v>543</v>
-      </c>
       <c r="C281" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D281">
         <v>514</v>
@@ -38770,13 +38770,13 @@
     </row>
     <row r="282" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>543</v>
+      </c>
+      <c r="B282" t="s">
         <v>544</v>
       </c>
-      <c r="B282" t="s">
-        <v>545</v>
-      </c>
       <c r="C282" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D282">
         <v>80</v>
@@ -38898,13 +38898,13 @@
     </row>
     <row r="283" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>545</v>
+      </c>
+      <c r="B283" t="s">
         <v>546</v>
       </c>
-      <c r="B283" t="s">
-        <v>547</v>
-      </c>
       <c r="C283" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D283">
         <v>74</v>
@@ -39026,13 +39026,13 @@
     </row>
     <row r="284" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>547</v>
+      </c>
+      <c r="B284" t="s">
         <v>548</v>
       </c>
-      <c r="B284" t="s">
-        <v>549</v>
-      </c>
       <c r="C284" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D284">
         <v>25</v>
@@ -39154,13 +39154,13 @@
     </row>
     <row r="285" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>549</v>
+      </c>
+      <c r="B285" t="s">
         <v>550</v>
       </c>
-      <c r="B285" t="s">
-        <v>551</v>
-      </c>
       <c r="C285" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D285">
         <v>215</v>
@@ -39282,13 +39282,13 @@
     </row>
     <row r="286" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>551</v>
+      </c>
+      <c r="B286" t="s">
         <v>552</v>
       </c>
-      <c r="B286" t="s">
-        <v>553</v>
-      </c>
       <c r="C286" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D286">
         <v>56</v>
@@ -39410,13 +39410,13 @@
     </row>
     <row r="287" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>553</v>
+      </c>
+      <c r="B287" t="s">
         <v>554</v>
       </c>
-      <c r="B287" t="s">
-        <v>555</v>
-      </c>
       <c r="C287" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D287">
         <v>752</v>
@@ -39538,13 +39538,13 @@
     </row>
     <row r="288" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>555</v>
+      </c>
+      <c r="B288" t="s">
         <v>556</v>
       </c>
-      <c r="B288" t="s">
-        <v>557</v>
-      </c>
       <c r="C288" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D288">
         <v>39</v>
@@ -39666,13 +39666,13 @@
     </row>
     <row r="289" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>557</v>
+      </c>
+      <c r="B289" t="s">
         <v>558</v>
       </c>
-      <c r="B289" t="s">
-        <v>559</v>
-      </c>
       <c r="C289" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D289">
         <v>628</v>
@@ -39794,13 +39794,13 @@
     </row>
     <row r="290" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>559</v>
+      </c>
+      <c r="B290" t="s">
         <v>560</v>
       </c>
-      <c r="B290" t="s">
-        <v>561</v>
-      </c>
       <c r="C290" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D290">
         <v>661</v>
@@ -39922,13 +39922,13 @@
     </row>
     <row r="291" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>561</v>
+      </c>
+      <c r="B291" t="s">
         <v>562</v>
       </c>
-      <c r="B291" t="s">
-        <v>563</v>
-      </c>
       <c r="C291" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D291">
         <v>3544</v>
@@ -40050,13 +40050,13 @@
     </row>
     <row r="292" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>563</v>
+      </c>
+      <c r="B292" t="s">
         <v>564</v>
       </c>
-      <c r="B292" t="s">
-        <v>565</v>
-      </c>
       <c r="C292" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D292">
         <v>581</v>
@@ -40178,13 +40178,13 @@
     </row>
     <row r="293" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>565</v>
+      </c>
+      <c r="B293" t="s">
         <v>566</v>
       </c>
-      <c r="B293" t="s">
-        <v>567</v>
-      </c>
       <c r="C293" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D293">
         <v>309</v>
@@ -40306,13 +40306,13 @@
     </row>
     <row r="294" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>567</v>
+      </c>
+      <c r="B294" t="s">
         <v>568</v>
       </c>
-      <c r="B294" t="s">
-        <v>569</v>
-      </c>
       <c r="C294" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D294">
         <v>73</v>
@@ -40434,13 +40434,13 @@
     </row>
     <row r="295" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>569</v>
+      </c>
+      <c r="B295" t="s">
         <v>570</v>
       </c>
-      <c r="B295" t="s">
-        <v>571</v>
-      </c>
       <c r="C295" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D295">
         <v>315</v>
@@ -40562,13 +40562,13 @@
     </row>
     <row r="296" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B296" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C296" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D296">
         <v>357</v>
@@ -40690,13 +40690,13 @@
     </row>
     <row r="297" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>571</v>
+      </c>
+      <c r="B297" t="s">
         <v>572</v>
       </c>
-      <c r="B297" t="s">
-        <v>573</v>
-      </c>
       <c r="C297" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D297">
         <v>99</v>
@@ -40818,13 +40818,13 @@
     </row>
     <row r="298" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>573</v>
+      </c>
+      <c r="B298" t="s">
         <v>574</v>
       </c>
-      <c r="B298" t="s">
-        <v>575</v>
-      </c>
       <c r="C298" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D298">
         <v>393</v>
@@ -40946,13 +40946,13 @@
     </row>
     <row r="299" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>575</v>
+      </c>
+      <c r="B299" t="s">
         <v>576</v>
       </c>
-      <c r="B299" t="s">
-        <v>577</v>
-      </c>
       <c r="C299" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D299">
         <v>369</v>
@@ -41074,13 +41074,13 @@
     </row>
     <row r="300" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>578</v>
+      </c>
+      <c r="B300" t="s">
         <v>579</v>
       </c>
-      <c r="B300" t="s">
-        <v>580</v>
-      </c>
       <c r="C300" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D300">
         <v>373</v>
@@ -41202,13 +41202,13 @@
     </row>
     <row r="301" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>580</v>
+      </c>
+      <c r="B301" t="s">
         <v>581</v>
       </c>
-      <c r="B301" t="s">
-        <v>582</v>
-      </c>
       <c r="C301" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D301">
         <v>104</v>
@@ -41330,13 +41330,13 @@
     </row>
     <row r="302" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>582</v>
+      </c>
+      <c r="B302" t="s">
         <v>583</v>
       </c>
-      <c r="B302" t="s">
-        <v>584</v>
-      </c>
       <c r="C302" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D302">
         <v>240</v>
@@ -41458,13 +41458,13 @@
     </row>
     <row r="303" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>584</v>
+      </c>
+      <c r="B303" t="s">
         <v>585</v>
       </c>
-      <c r="B303" t="s">
-        <v>586</v>
-      </c>
       <c r="C303" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D303">
         <v>331</v>
@@ -41586,13 +41586,13 @@
     </row>
     <row r="304" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>586</v>
+      </c>
+      <c r="B304" t="s">
         <v>587</v>
       </c>
-      <c r="B304" t="s">
-        <v>588</v>
-      </c>
       <c r="C304" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D304">
         <v>2605</v>
@@ -41714,13 +41714,13 @@
     </row>
     <row r="305" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>588</v>
+      </c>
+      <c r="B305" t="s">
         <v>589</v>
       </c>
-      <c r="B305" t="s">
-        <v>590</v>
-      </c>
       <c r="C305" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D305">
         <v>589</v>
@@ -41842,13 +41842,13 @@
     </row>
     <row r="306" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>590</v>
+      </c>
+      <c r="B306" t="s">
         <v>591</v>
       </c>
-      <c r="B306" t="s">
-        <v>592</v>
-      </c>
       <c r="C306" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D306">
         <v>46</v>
@@ -41970,13 +41970,13 @@
     </row>
     <row r="307" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>592</v>
+      </c>
+      <c r="B307" t="s">
         <v>593</v>
       </c>
-      <c r="B307" t="s">
-        <v>594</v>
-      </c>
       <c r="C307" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D307">
         <v>679</v>
@@ -42098,13 +42098,13 @@
     </row>
     <row r="308" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>594</v>
+      </c>
+      <c r="B308" t="s">
         <v>595</v>
       </c>
-      <c r="B308" t="s">
-        <v>596</v>
-      </c>
       <c r="C308" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D308">
         <v>578</v>
@@ -42226,13 +42226,13 @@
     </row>
     <row r="309" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>596</v>
+      </c>
+      <c r="B309" t="s">
         <v>597</v>
       </c>
-      <c r="B309" t="s">
-        <v>598</v>
-      </c>
       <c r="C309" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D309">
         <v>714</v>
@@ -42354,13 +42354,13 @@
     </row>
     <row r="310" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>598</v>
+      </c>
+      <c r="B310" t="s">
         <v>599</v>
       </c>
-      <c r="B310" t="s">
-        <v>600</v>
-      </c>
       <c r="C310" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D310">
         <v>1663</v>
@@ -42482,13 +42482,13 @@
     </row>
     <row r="311" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>600</v>
+      </c>
+      <c r="B311" t="s">
         <v>601</v>
       </c>
-      <c r="B311" t="s">
-        <v>602</v>
-      </c>
       <c r="C311" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D311">
         <v>95</v>
@@ -42610,13 +42610,13 @@
     </row>
     <row r="312" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>602</v>
+      </c>
+      <c r="B312" t="s">
         <v>603</v>
       </c>
-      <c r="B312" t="s">
-        <v>604</v>
-      </c>
       <c r="C312" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D312">
         <v>34</v>
@@ -42738,13 +42738,13 @@
     </row>
     <row r="313" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>604</v>
+      </c>
+      <c r="B313" t="s">
         <v>605</v>
       </c>
-      <c r="B313" t="s">
-        <v>606</v>
-      </c>
       <c r="C313" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D313">
         <v>271</v>
@@ -42866,13 +42866,13 @@
     </row>
     <row r="314" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>606</v>
+      </c>
+      <c r="B314" t="s">
         <v>607</v>
       </c>
-      <c r="B314" t="s">
-        <v>608</v>
-      </c>
       <c r="C314" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D314">
         <v>258</v>
@@ -42994,13 +42994,13 @@
     </row>
     <row r="315" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>608</v>
+      </c>
+      <c r="B315" t="s">
         <v>609</v>
       </c>
-      <c r="B315" t="s">
-        <v>610</v>
-      </c>
       <c r="C315" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D315">
         <v>129</v>
@@ -43122,13 +43122,13 @@
     </row>
     <row r="316" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>610</v>
+      </c>
+      <c r="B316" t="s">
         <v>611</v>
       </c>
-      <c r="B316" t="s">
-        <v>612</v>
-      </c>
       <c r="C316" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D316">
         <v>78</v>
@@ -43250,13 +43250,13 @@
     </row>
     <row r="317" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>612</v>
+      </c>
+      <c r="B317" t="s">
         <v>613</v>
       </c>
-      <c r="B317" t="s">
-        <v>614</v>
-      </c>
       <c r="C317" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D317">
         <v>45</v>
@@ -43378,13 +43378,13 @@
     </row>
     <row r="318" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>614</v>
+      </c>
+      <c r="B318" t="s">
         <v>615</v>
       </c>
-      <c r="B318" t="s">
-        <v>616</v>
-      </c>
       <c r="C318" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D318">
         <v>95</v>
@@ -43506,13 +43506,13 @@
     </row>
     <row r="319" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>616</v>
+      </c>
+      <c r="B319" t="s">
         <v>617</v>
       </c>
-      <c r="B319" t="s">
-        <v>618</v>
-      </c>
       <c r="C319" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D319">
         <v>248</v>
@@ -43634,13 +43634,13 @@
     </row>
     <row r="320" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>618</v>
+      </c>
+      <c r="B320" t="s">
         <v>619</v>
       </c>
-      <c r="B320" t="s">
-        <v>620</v>
-      </c>
       <c r="C320" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D320">
         <v>345</v>
@@ -43762,13 +43762,13 @@
     </row>
     <row r="321" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>620</v>
+      </c>
+      <c r="B321" t="s">
         <v>621</v>
       </c>
-      <c r="B321" t="s">
-        <v>622</v>
-      </c>
       <c r="C321" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D321">
         <v>64</v>
@@ -43890,13 +43890,13 @@
     </row>
     <row r="322" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>622</v>
+      </c>
+      <c r="B322" t="s">
         <v>623</v>
       </c>
-      <c r="B322" t="s">
-        <v>624</v>
-      </c>
       <c r="C322" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D322">
         <v>1991</v>
@@ -44018,13 +44018,13 @@
     </row>
     <row r="323" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>624</v>
+      </c>
+      <c r="B323" t="s">
         <v>625</v>
       </c>
-      <c r="B323" t="s">
-        <v>626</v>
-      </c>
       <c r="C323" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D323">
         <v>42</v>
@@ -44146,13 +44146,13 @@
     </row>
     <row r="324" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>626</v>
+      </c>
+      <c r="B324" t="s">
         <v>627</v>
       </c>
-      <c r="B324" t="s">
-        <v>628</v>
-      </c>
       <c r="C324" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D324">
         <v>221</v>
@@ -44274,13 +44274,13 @@
     </row>
     <row r="325" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>628</v>
+      </c>
+      <c r="B325" t="s">
         <v>629</v>
       </c>
-      <c r="B325" t="s">
-        <v>630</v>
-      </c>
       <c r="C325" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D325">
         <v>786</v>
@@ -44402,13 +44402,13 @@
     </row>
     <row r="326" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>630</v>
+      </c>
+      <c r="B326" t="s">
         <v>631</v>
       </c>
-      <c r="B326" t="s">
-        <v>632</v>
-      </c>
       <c r="C326" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D326">
         <v>45</v>
@@ -44530,13 +44530,13 @@
     </row>
     <row r="327" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>632</v>
+      </c>
+      <c r="B327" t="s">
         <v>633</v>
       </c>
-      <c r="B327" t="s">
-        <v>634</v>
-      </c>
       <c r="C327" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D327">
         <v>530</v>
@@ -44658,13 +44658,13 @@
     </row>
     <row r="328" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>634</v>
+      </c>
+      <c r="B328" t="s">
         <v>635</v>
       </c>
-      <c r="B328" t="s">
-        <v>636</v>
-      </c>
       <c r="C328" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D328">
         <v>334</v>
@@ -44786,13 +44786,13 @@
     </row>
     <row r="329" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>636</v>
+      </c>
+      <c r="B329" t="s">
         <v>637</v>
       </c>
-      <c r="B329" t="s">
-        <v>638</v>
-      </c>
       <c r="C329" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D329">
         <v>33</v>
@@ -44914,13 +44914,13 @@
     </row>
     <row r="330" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B330" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C330" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D330">
         <v>23836</v>
@@ -45042,13 +45042,13 @@
     </row>
     <row r="331" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>639</v>
+      </c>
+      <c r="B331" t="s">
         <v>640</v>
       </c>
-      <c r="B331" t="s">
-        <v>641</v>
-      </c>
       <c r="C331" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D331">
         <v>346</v>
@@ -45170,13 +45170,13 @@
     </row>
     <row r="332" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>858</v>
+      </c>
+      <c r="B332" t="s">
         <v>859</v>
       </c>
-      <c r="B332" t="s">
-        <v>860</v>
-      </c>
       <c r="C332" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D332">
         <v>162</v>
@@ -45298,13 +45298,13 @@
     </row>
     <row r="333" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>641</v>
+      </c>
+      <c r="B333" t="s">
         <v>642</v>
       </c>
-      <c r="B333" t="s">
-        <v>643</v>
-      </c>
       <c r="C333" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D333">
         <v>110</v>
@@ -45426,13 +45426,13 @@
     </row>
     <row r="334" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>643</v>
+      </c>
+      <c r="B334" t="s">
         <v>644</v>
       </c>
-      <c r="B334" t="s">
-        <v>645</v>
-      </c>
       <c r="C334" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D334">
         <v>3545</v>
@@ -45554,13 +45554,13 @@
     </row>
     <row r="335" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B335" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C335" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D335">
         <v>2491</v>
@@ -45682,13 +45682,13 @@
     </row>
     <row r="336" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>645</v>
+      </c>
+      <c r="B336" t="s">
         <v>646</v>
       </c>
-      <c r="B336" t="s">
-        <v>647</v>
-      </c>
       <c r="C336" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D336">
         <v>16</v>
@@ -45810,13 +45810,13 @@
     </row>
     <row r="337" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>647</v>
+      </c>
+      <c r="B337" t="s">
         <v>648</v>
       </c>
-      <c r="B337" t="s">
-        <v>649</v>
-      </c>
       <c r="C337" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D337">
         <v>374</v>
@@ -45938,13 +45938,13 @@
     </row>
     <row r="338" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>649</v>
+      </c>
+      <c r="B338" t="s">
         <v>650</v>
       </c>
-      <c r="B338" t="s">
-        <v>651</v>
-      </c>
       <c r="C338" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D338">
         <v>80</v>
@@ -46066,13 +46066,13 @@
     </row>
     <row r="339" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>651</v>
+      </c>
+      <c r="B339" t="s">
         <v>652</v>
       </c>
-      <c r="B339" t="s">
-        <v>653</v>
-      </c>
       <c r="C339" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D339">
         <v>497</v>
@@ -46194,13 +46194,13 @@
     </row>
     <row r="340" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>653</v>
+      </c>
+      <c r="B340" t="s">
         <v>654</v>
       </c>
-      <c r="B340" t="s">
-        <v>655</v>
-      </c>
       <c r="C340" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D340">
         <v>230</v>
@@ -46322,13 +46322,13 @@
     </row>
     <row r="341" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>655</v>
+      </c>
+      <c r="B341" t="s">
         <v>656</v>
       </c>
-      <c r="B341" t="s">
-        <v>657</v>
-      </c>
       <c r="C341" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D341">
         <v>63</v>
@@ -46450,13 +46450,13 @@
     </row>
     <row r="342" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>657</v>
+      </c>
+      <c r="B342" t="s">
         <v>658</v>
       </c>
-      <c r="B342" t="s">
-        <v>659</v>
-      </c>
       <c r="C342" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D342">
         <v>3255</v>
@@ -46578,13 +46578,13 @@
     </row>
     <row r="343" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>659</v>
+      </c>
+      <c r="B343" t="s">
         <v>660</v>
       </c>
-      <c r="B343" t="s">
-        <v>661</v>
-      </c>
       <c r="C343" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D343">
         <v>6564</v>
@@ -46706,13 +46706,13 @@
     </row>
     <row r="344" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>661</v>
+      </c>
+      <c r="B344" t="s">
         <v>662</v>
       </c>
-      <c r="B344" t="s">
-        <v>663</v>
-      </c>
       <c r="C344" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D344">
         <v>814</v>
@@ -46834,13 +46834,13 @@
     </row>
     <row r="345" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>663</v>
+      </c>
+      <c r="B345" t="s">
         <v>664</v>
       </c>
-      <c r="B345" t="s">
-        <v>665</v>
-      </c>
       <c r="C345" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D345">
         <v>47</v>
@@ -46962,13 +46962,13 @@
     </row>
     <row r="346" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>665</v>
+      </c>
+      <c r="B346" t="s">
         <v>666</v>
       </c>
-      <c r="B346" t="s">
-        <v>667</v>
-      </c>
       <c r="C346" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D346">
         <v>913</v>
@@ -47090,13 +47090,13 @@
     </row>
     <row r="347" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>667</v>
+      </c>
+      <c r="B347" t="s">
         <v>668</v>
       </c>
-      <c r="B347" t="s">
-        <v>669</v>
-      </c>
       <c r="C347" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D347">
         <v>1086</v>
@@ -47218,13 +47218,13 @@
     </row>
     <row r="348" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>669</v>
+      </c>
+      <c r="B348" t="s">
         <v>670</v>
       </c>
-      <c r="B348" t="s">
-        <v>671</v>
-      </c>
       <c r="C348" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D348">
         <v>887</v>
@@ -47346,13 +47346,13 @@
     </row>
     <row r="349" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>671</v>
+      </c>
+      <c r="B349" t="s">
         <v>672</v>
       </c>
-      <c r="B349" t="s">
-        <v>673</v>
-      </c>
       <c r="C349" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D349">
         <v>674</v>
@@ -47474,13 +47474,13 @@
     </row>
     <row r="350" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>673</v>
+      </c>
+      <c r="B350" t="s">
         <v>674</v>
       </c>
-      <c r="B350" t="s">
-        <v>675</v>
-      </c>
       <c r="C350" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D350">
         <v>984</v>
@@ -47602,13 +47602,13 @@
     </row>
     <row r="351" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>675</v>
+      </c>
+      <c r="B351" t="s">
         <v>676</v>
       </c>
-      <c r="B351" t="s">
-        <v>677</v>
-      </c>
       <c r="C351" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D351">
         <v>1160</v>
@@ -47730,13 +47730,13 @@
     </row>
     <row r="352" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>678</v>
+      </c>
+      <c r="B352" t="s">
         <v>679</v>
       </c>
-      <c r="B352" t="s">
-        <v>680</v>
-      </c>
       <c r="C352" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D352">
         <v>2653</v>
@@ -47858,13 +47858,13 @@
     </row>
     <row r="353" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>680</v>
+      </c>
+      <c r="B353" t="s">
         <v>681</v>
       </c>
-      <c r="B353" t="s">
-        <v>682</v>
-      </c>
       <c r="C353" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D353">
         <v>47</v>
@@ -47986,13 +47986,13 @@
     </row>
     <row r="354" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>682</v>
+      </c>
+      <c r="B354" t="s">
         <v>683</v>
       </c>
-      <c r="B354" t="s">
-        <v>684</v>
-      </c>
       <c r="C354" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D354">
         <v>1165</v>
@@ -48114,13 +48114,13 @@
     </row>
     <row r="355" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>684</v>
+      </c>
+      <c r="B355" t="s">
         <v>685</v>
       </c>
-      <c r="B355" t="s">
-        <v>686</v>
-      </c>
       <c r="C355" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D355">
         <v>526</v>
@@ -48242,13 +48242,13 @@
     </row>
     <row r="356" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>686</v>
+      </c>
+      <c r="B356" t="s">
         <v>687</v>
       </c>
-      <c r="B356" t="s">
-        <v>688</v>
-      </c>
       <c r="C356" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D356">
         <v>41</v>
@@ -48370,13 +48370,13 @@
     </row>
     <row r="357" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>688</v>
+      </c>
+      <c r="B357" t="s">
         <v>689</v>
       </c>
-      <c r="B357" t="s">
-        <v>690</v>
-      </c>
       <c r="C357" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D357">
         <v>461</v>
@@ -48498,13 +48498,13 @@
     </row>
     <row r="358" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>690</v>
+      </c>
+      <c r="B358" t="s">
         <v>691</v>
       </c>
-      <c r="B358" t="s">
-        <v>692</v>
-      </c>
       <c r="C358" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D358">
         <v>414</v>
@@ -48626,13 +48626,13 @@
     </row>
     <row r="359" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>692</v>
+      </c>
+      <c r="B359" t="s">
         <v>693</v>
       </c>
-      <c r="B359" t="s">
-        <v>694</v>
-      </c>
       <c r="C359" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D359">
         <v>3451</v>
@@ -48754,13 +48754,13 @@
     </row>
     <row r="360" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>694</v>
+      </c>
+      <c r="B360" t="s">
         <v>695</v>
       </c>
-      <c r="B360" t="s">
-        <v>696</v>
-      </c>
       <c r="C360" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D360">
         <v>739</v>
@@ -48882,13 +48882,13 @@
     </row>
     <row r="361" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>696</v>
+      </c>
+      <c r="B361" t="s">
         <v>697</v>
       </c>
-      <c r="B361" t="s">
-        <v>698</v>
-      </c>
       <c r="C361" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D361">
         <v>565</v>
@@ -49010,13 +49010,13 @@
     </row>
     <row r="362" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>861</v>
+      </c>
+      <c r="B362" t="s">
         <v>862</v>
       </c>
-      <c r="B362" t="s">
-        <v>863</v>
-      </c>
       <c r="C362" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D362">
         <v>1188</v>
@@ -49138,13 +49138,13 @@
     </row>
     <row r="363" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>698</v>
+      </c>
+      <c r="B363" t="s">
         <v>699</v>
       </c>
-      <c r="B363" t="s">
-        <v>700</v>
-      </c>
       <c r="C363" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D363">
         <v>959</v>
@@ -49266,13 +49266,13 @@
     </row>
     <row r="364" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
       </c>
       <c r="C364" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D364">
         <v>20736</v>
@@ -49394,13 +49394,13 @@
     </row>
     <row r="365" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>701</v>
+      </c>
+      <c r="B365" t="s">
         <v>702</v>
       </c>
-      <c r="B365" t="s">
-        <v>703</v>
-      </c>
       <c r="C365" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D365">
         <v>712</v>
@@ -49522,13 +49522,13 @@
     </row>
     <row r="366" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>703</v>
+      </c>
+      <c r="B366" t="s">
         <v>704</v>
       </c>
-      <c r="B366" t="s">
-        <v>705</v>
-      </c>
       <c r="C366" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D366">
         <v>2535</v>
@@ -49650,13 +49650,13 @@
     </row>
     <row r="367" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>705</v>
+      </c>
+      <c r="B367" t="s">
         <v>706</v>
       </c>
-      <c r="B367" t="s">
-        <v>707</v>
-      </c>
       <c r="C367" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D367">
         <v>1126</v>
@@ -49778,13 +49778,13 @@
     </row>
     <row r="368" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>707</v>
+      </c>
+      <c r="B368" t="s">
         <v>708</v>
       </c>
-      <c r="B368" t="s">
-        <v>709</v>
-      </c>
       <c r="C368" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D368">
         <v>837</v>
@@ -49906,13 +49906,13 @@
     </row>
     <row r="369" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>709</v>
+      </c>
+      <c r="B369" t="s">
         <v>710</v>
       </c>
-      <c r="B369" t="s">
-        <v>711</v>
-      </c>
       <c r="C369" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D369">
         <v>440</v>
@@ -50034,13 +50034,13 @@
     </row>
     <row r="370" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>711</v>
+      </c>
+      <c r="B370" t="s">
         <v>712</v>
       </c>
-      <c r="B370" t="s">
-        <v>713</v>
-      </c>
       <c r="C370" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D370">
         <v>504</v>
@@ -50162,13 +50162,13 @@
     </row>
     <row r="371" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>713</v>
+      </c>
+      <c r="B371" t="s">
         <v>714</v>
       </c>
-      <c r="B371" t="s">
-        <v>715</v>
-      </c>
       <c r="C371" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D371">
         <v>5181</v>
@@ -50290,13 +50290,13 @@
     </row>
     <row r="372" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>715</v>
+      </c>
+      <c r="B372" t="s">
         <v>716</v>
       </c>
-      <c r="B372" t="s">
-        <v>717</v>
-      </c>
       <c r="C372" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D372">
         <v>1786</v>
@@ -50418,13 +50418,13 @@
     </row>
     <row r="373" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>717</v>
+      </c>
+      <c r="B373" t="s">
         <v>718</v>
       </c>
-      <c r="B373" t="s">
-        <v>719</v>
-      </c>
       <c r="C373" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D373">
         <v>1618</v>
@@ -50546,13 +50546,13 @@
     </row>
     <row r="374" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>719</v>
+      </c>
+      <c r="B374" t="s">
         <v>720</v>
       </c>
-      <c r="B374" t="s">
-        <v>721</v>
-      </c>
       <c r="C374" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D374">
         <v>2370</v>
@@ -50674,13 +50674,13 @@
     </row>
     <row r="375" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>721</v>
+      </c>
+      <c r="B375" t="s">
         <v>722</v>
       </c>
-      <c r="B375" t="s">
-        <v>723</v>
-      </c>
       <c r="C375" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D375">
         <v>378</v>
@@ -50802,13 +50802,13 @@
     </row>
     <row r="376" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>723</v>
+      </c>
+      <c r="B376" t="s">
         <v>724</v>
       </c>
-      <c r="B376" t="s">
-        <v>725</v>
-      </c>
       <c r="C376" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D376">
         <v>441</v>
@@ -50930,13 +50930,13 @@
     </row>
     <row r="377" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>725</v>
+      </c>
+      <c r="B377" t="s">
         <v>726</v>
       </c>
-      <c r="B377" t="s">
-        <v>727</v>
-      </c>
       <c r="C377" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D377">
         <v>251</v>
@@ -51058,13 +51058,13 @@
     </row>
     <row r="378" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B378" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C378" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D378">
         <v>331</v>
@@ -51186,13 +51186,13 @@
     </row>
     <row r="379" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>728</v>
+      </c>
+      <c r="B379" t="s">
         <v>729</v>
       </c>
-      <c r="B379" t="s">
-        <v>730</v>
-      </c>
       <c r="C379" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D379">
         <v>141</v>
@@ -51314,13 +51314,13 @@
     </row>
     <row r="380" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>730</v>
+      </c>
+      <c r="B380" t="s">
         <v>731</v>
       </c>
-      <c r="B380" t="s">
-        <v>732</v>
-      </c>
       <c r="C380" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D380">
         <v>424</v>
@@ -51442,13 +51442,13 @@
     </row>
     <row r="381" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>732</v>
+      </c>
+      <c r="B381" t="s">
         <v>733</v>
       </c>
-      <c r="B381" t="s">
-        <v>734</v>
-      </c>
       <c r="C381" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D381">
         <v>111</v>
@@ -51570,13 +51570,13 @@
     </row>
     <row r="382" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>734</v>
+      </c>
+      <c r="B382" t="s">
         <v>735</v>
       </c>
-      <c r="B382" t="s">
-        <v>736</v>
-      </c>
       <c r="C382" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D382">
         <v>277</v>
@@ -51698,13 +51698,13 @@
     </row>
     <row r="383" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>736</v>
+      </c>
+      <c r="B383" t="s">
         <v>737</v>
       </c>
-      <c r="B383" t="s">
-        <v>738</v>
-      </c>
       <c r="C383" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D383">
         <v>109</v>
@@ -51826,13 +51826,13 @@
     </row>
     <row r="384" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>738</v>
+      </c>
+      <c r="B384" t="s">
         <v>739</v>
       </c>
-      <c r="B384" t="s">
-        <v>740</v>
-      </c>
       <c r="C384" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D384">
         <v>126</v>
@@ -51954,13 +51954,13 @@
     </row>
     <row r="385" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>740</v>
+      </c>
+      <c r="B385" t="s">
         <v>741</v>
       </c>
-      <c r="B385" t="s">
-        <v>742</v>
-      </c>
       <c r="C385" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D385">
         <v>849</v>
@@ -52082,13 +52082,13 @@
     </row>
     <row r="386" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>742</v>
+      </c>
+      <c r="B386" t="s">
         <v>743</v>
       </c>
-      <c r="B386" t="s">
-        <v>744</v>
-      </c>
       <c r="C386" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D386">
         <v>190</v>
@@ -52210,13 +52210,13 @@
     </row>
     <row r="387" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
       </c>
       <c r="C387" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D387">
         <v>77903</v>
@@ -52338,13 +52338,13 @@
     </row>
     <row r="388" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>745</v>
+      </c>
+      <c r="B388" t="s">
         <v>746</v>
       </c>
-      <c r="B388" t="s">
-        <v>747</v>
-      </c>
       <c r="C388" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D388">
         <v>186</v>
@@ -52466,13 +52466,13 @@
     </row>
     <row r="389" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>747</v>
+      </c>
+      <c r="B389" t="s">
         <v>748</v>
       </c>
-      <c r="B389" t="s">
-        <v>749</v>
-      </c>
       <c r="C389" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D389">
         <v>6313</v>
@@ -52594,13 +52594,13 @@
     </row>
     <row r="390" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>749</v>
+      </c>
+      <c r="B390" t="s">
         <v>750</v>
       </c>
-      <c r="B390" t="s">
-        <v>751</v>
-      </c>
       <c r="C390" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D390">
         <v>2182</v>
@@ -52722,13 +52722,13 @@
     </row>
     <row r="391" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>751</v>
+      </c>
+      <c r="B391" t="s">
         <v>752</v>
       </c>
-      <c r="B391" t="s">
-        <v>753</v>
-      </c>
       <c r="C391" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D391">
         <v>6907</v>
@@ -52850,13 +52850,13 @@
     </row>
     <row r="392" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>753</v>
+      </c>
+      <c r="B392" t="s">
         <v>754</v>
       </c>
-      <c r="B392" t="s">
-        <v>755</v>
-      </c>
       <c r="C392" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D392">
         <v>263</v>
@@ -52978,13 +52978,13 @@
     </row>
     <row r="393" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>755</v>
+      </c>
+      <c r="B393" t="s">
         <v>756</v>
       </c>
-      <c r="B393" t="s">
-        <v>757</v>
-      </c>
       <c r="C393" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D393">
         <v>159</v>
@@ -53106,13 +53106,13 @@
     </row>
     <row r="394" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>757</v>
+      </c>
+      <c r="B394" t="s">
         <v>758</v>
       </c>
-      <c r="B394" t="s">
-        <v>759</v>
-      </c>
       <c r="C394" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D394">
         <v>6426</v>
@@ -53234,13 +53234,13 @@
     </row>
     <row r="395" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>759</v>
+      </c>
+      <c r="B395" t="s">
         <v>760</v>
       </c>
-      <c r="B395" t="s">
-        <v>761</v>
-      </c>
       <c r="C395" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D395">
         <v>60</v>
@@ -53362,13 +53362,13 @@
     </row>
     <row r="396" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>761</v>
+      </c>
+      <c r="B396" t="s">
         <v>762</v>
       </c>
-      <c r="B396" t="s">
-        <v>763</v>
-      </c>
       <c r="C396" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D396">
         <v>1262</v>
@@ -53490,13 +53490,13 @@
     </row>
     <row r="397" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>763</v>
+      </c>
+      <c r="B397" t="s">
         <v>764</v>
       </c>
-      <c r="B397" t="s">
-        <v>765</v>
-      </c>
       <c r="C397" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D397">
         <v>174</v>
@@ -53618,13 +53618,13 @@
     </row>
     <row r="398" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>765</v>
+      </c>
+      <c r="B398" t="s">
         <v>766</v>
       </c>
-      <c r="B398" t="s">
-        <v>767</v>
-      </c>
       <c r="C398" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D398">
         <v>679</v>
@@ -53746,13 +53746,13 @@
     </row>
     <row r="399" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>767</v>
+      </c>
+      <c r="B399" t="s">
         <v>768</v>
       </c>
-      <c r="B399" t="s">
-        <v>769</v>
-      </c>
       <c r="C399" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D399">
         <v>174</v>
@@ -53874,13 +53874,13 @@
     </row>
     <row r="400" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>769</v>
+      </c>
+      <c r="B400" t="s">
         <v>770</v>
       </c>
-      <c r="B400" t="s">
-        <v>771</v>
-      </c>
       <c r="C400" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D400">
         <v>297</v>
@@ -54002,13 +54002,13 @@
     </row>
     <row r="401" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B401" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C401" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D401">
         <v>1325</v>
@@ -54130,13 +54130,13 @@
     </row>
     <row r="402" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B402" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C402" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D402">
         <v>175</v>
@@ -54258,13 +54258,13 @@
     </row>
     <row r="403" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>773</v>
+      </c>
+      <c r="B403" t="s">
         <v>774</v>
       </c>
-      <c r="B403" t="s">
-        <v>775</v>
-      </c>
       <c r="C403" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D403">
         <v>25654</v>
@@ -54386,13 +54386,13 @@
     </row>
     <row r="404" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>775</v>
+      </c>
+      <c r="B404" t="s">
         <v>776</v>
       </c>
-      <c r="B404" t="s">
-        <v>777</v>
-      </c>
       <c r="C404" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D404">
         <v>160</v>
@@ -54514,13 +54514,13 @@
     </row>
     <row r="405" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>777</v>
+      </c>
+      <c r="B405" t="s">
         <v>778</v>
       </c>
-      <c r="B405" t="s">
-        <v>779</v>
-      </c>
       <c r="C405" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D405">
         <v>354</v>
@@ -54642,13 +54642,13 @@
     </row>
     <row r="406" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>779</v>
+      </c>
+      <c r="B406" t="s">
         <v>780</v>
       </c>
-      <c r="B406" t="s">
-        <v>781</v>
-      </c>
       <c r="C406" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D406">
         <v>2237</v>
@@ -54770,13 +54770,13 @@
     </row>
     <row r="407" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>781</v>
+      </c>
+      <c r="B407" t="s">
         <v>782</v>
       </c>
-      <c r="B407" t="s">
-        <v>783</v>
-      </c>
       <c r="C407" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D407">
         <v>3056</v>
@@ -54898,13 +54898,13 @@
     </row>
     <row r="408" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>783</v>
+      </c>
+      <c r="B408" t="s">
         <v>784</v>
       </c>
-      <c r="B408" t="s">
-        <v>785</v>
-      </c>
       <c r="C408" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D408">
         <v>885</v>
@@ -55026,13 +55026,13 @@
     </row>
     <row r="409" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B409" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C409" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D409">
         <v>470</v>
@@ -55154,13 +55154,13 @@
     </row>
     <row r="410" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>786</v>
+      </c>
+      <c r="B410" t="s">
         <v>787</v>
       </c>
-      <c r="B410" t="s">
-        <v>788</v>
-      </c>
       <c r="C410" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D410">
         <v>991</v>
@@ -55282,13 +55282,13 @@
     </row>
     <row r="411" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B411" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C411" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D411">
         <v>5286</v>
@@ -55410,13 +55410,13 @@
     </row>
     <row r="412" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>789</v>
+      </c>
+      <c r="B412" t="s">
         <v>790</v>
       </c>
-      <c r="B412" t="s">
-        <v>791</v>
-      </c>
       <c r="C412" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D412">
         <v>261</v>
@@ -55538,13 +55538,13 @@
     </row>
     <row r="413" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>791</v>
+      </c>
+      <c r="B413" t="s">
         <v>792</v>
       </c>
-      <c r="B413" t="s">
-        <v>793</v>
-      </c>
       <c r="C413" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D413">
         <v>4732</v>
@@ -55666,13 +55666,13 @@
     </row>
     <row r="414" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>793</v>
+      </c>
+      <c r="B414" t="s">
         <v>794</v>
       </c>
-      <c r="B414" t="s">
-        <v>795</v>
-      </c>
       <c r="C414" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D414">
         <v>1467</v>
@@ -55794,13 +55794,13 @@
     </row>
     <row r="415" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>795</v>
+      </c>
+      <c r="B415" t="s">
         <v>796</v>
       </c>
-      <c r="B415" t="s">
-        <v>797</v>
-      </c>
       <c r="C415" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D415">
         <v>1222</v>
@@ -55922,13 +55922,13 @@
     </row>
     <row r="416" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>797</v>
+      </c>
+      <c r="B416" t="s">
         <v>798</v>
       </c>
-      <c r="B416" t="s">
-        <v>799</v>
-      </c>
       <c r="C416" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D416">
         <v>1772</v>
@@ -56050,13 +56050,13 @@
     </row>
     <row r="417" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>799</v>
+      </c>
+      <c r="B417" t="s">
         <v>800</v>
       </c>
-      <c r="B417" t="s">
-        <v>801</v>
-      </c>
       <c r="C417" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D417">
         <v>2187</v>
@@ -56178,13 +56178,13 @@
     </row>
     <row r="418" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>801</v>
+      </c>
+      <c r="B418" t="s">
         <v>802</v>
       </c>
-      <c r="B418" t="s">
-        <v>803</v>
-      </c>
       <c r="C418" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D418">
         <v>159</v>
@@ -56306,13 +56306,13 @@
     </row>
     <row r="419" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>803</v>
+      </c>
+      <c r="B419" t="s">
         <v>804</v>
       </c>
-      <c r="B419" t="s">
-        <v>805</v>
-      </c>
       <c r="C419" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D419">
         <v>428</v>
@@ -56434,13 +56434,13 @@
     </row>
     <row r="420" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D420">
         <v>13793</v>
@@ -56562,13 +56562,13 @@
     </row>
     <row r="421" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>874</v>
+      </c>
+      <c r="B421" t="s">
         <v>875</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>876</v>
-      </c>
-      <c r="C421" t="s">
-        <v>877</v>
       </c>
       <c r="D421">
         <v>571</v>
@@ -56690,13 +56690,13 @@
     </row>
     <row r="422" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>877</v>
+      </c>
+      <c r="B422" t="s">
         <v>878</v>
       </c>
-      <c r="B422" t="s">
-        <v>879</v>
-      </c>
       <c r="C422" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D422">
         <v>566</v>
@@ -56818,13 +56818,13 @@
     </row>
     <row r="423" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>879</v>
+      </c>
+      <c r="B423" t="s">
         <v>880</v>
       </c>
-      <c r="B423" t="s">
-        <v>881</v>
-      </c>
       <c r="C423" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D423">
         <v>1338</v>
@@ -56946,13 +56946,13 @@
     </row>
     <row r="424" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>881</v>
+      </c>
+      <c r="B424" t="s">
         <v>882</v>
       </c>
-      <c r="B424" t="s">
-        <v>883</v>
-      </c>
       <c r="C424" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D424">
         <v>138</v>
@@ -57074,13 +57074,13 @@
     </row>
     <row r="425" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>883</v>
+      </c>
+      <c r="B425" t="s">
         <v>884</v>
       </c>
-      <c r="B425" t="s">
-        <v>885</v>
-      </c>
       <c r="C425" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D425">
         <v>1986</v>
@@ -57202,13 +57202,13 @@
     </row>
     <row r="426" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>885</v>
+      </c>
+      <c r="B426" t="s">
         <v>886</v>
       </c>
-      <c r="B426" t="s">
-        <v>887</v>
-      </c>
       <c r="C426" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D426">
         <v>1251</v>
@@ -57330,13 +57330,13 @@
     </row>
     <row r="427" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>887</v>
+      </c>
+      <c r="B427" t="s">
         <v>888</v>
       </c>
-      <c r="B427" t="s">
-        <v>889</v>
-      </c>
       <c r="C427" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D427">
         <v>2864</v>
@@ -57458,13 +57458,13 @@
     </row>
     <row r="428" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>889</v>
+      </c>
+      <c r="B428" t="s">
         <v>890</v>
       </c>
-      <c r="B428" t="s">
-        <v>891</v>
-      </c>
       <c r="C428" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D428">
         <v>506</v>
@@ -57586,13 +57586,13 @@
     </row>
     <row r="429" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>891</v>
+      </c>
+      <c r="B429" t="s">
         <v>892</v>
       </c>
-      <c r="B429" t="s">
-        <v>893</v>
-      </c>
       <c r="C429" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D429">
         <v>1059</v>
@@ -57714,13 +57714,13 @@
     </row>
     <row r="430" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>893</v>
+      </c>
+      <c r="B430" t="s">
         <v>894</v>
       </c>
-      <c r="B430" t="s">
-        <v>895</v>
-      </c>
       <c r="C430" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D430">
         <v>1831</v>
@@ -57842,13 +57842,13 @@
     </row>
     <row r="431" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>895</v>
+      </c>
+      <c r="B431" t="s">
         <v>896</v>
       </c>
-      <c r="B431" t="s">
-        <v>897</v>
-      </c>
       <c r="C431" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D431">
         <v>1682</v>
@@ -57970,7 +57970,7 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -57979,28 +57979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1106</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66bfcbf4bccf85a1e5fe9945d50e202a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1366b0ad4ac173e0c9745adbca88cb2b" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -58139,34 +58117,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7638B5B9-06EF-462A-814B-C5B6CEFBE206}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765782C9-0114-4675-9ACC-7B5DEE8409DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F46D709-C770-46D5-A259-6B52F8F0EAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1106</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEECDA6B-FD08-42D0-B3C9-D5B39A5F0F1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58183,4 +58156,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F46D709-C770-46D5-A259-6B52F8F0EAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765782C9-0114-4675-9ACC-7B5DEE8409DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7638B5B9-06EF-462A-814B-C5B6CEFBE206}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>